--- a/data/trans_dic/P38C-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Habitat-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P38C-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,83%</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>76,14; 90,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>74,26; 94,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>79,91; 92,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>85,17; 95,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>79,75; 89,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>84,6; 93,92</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,91%</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>79,62; 85,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>80,38; 89,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>84,99; 90,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>89,37; 94,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>83,06; 87,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>86,41; 91,0</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,8%</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>79,77; 84,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>60,93; 78,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>88,57; 92,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>81,33; 86,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>84,81; 87,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>70,98; 81,58</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,67%</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>77,13; 82,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>75,08; 83,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>84,89; 89,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>83,81; 92,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>81,73; 85,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>81,1; 87,75</t>
         </is>
       </c>
     </row>
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,46%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,38%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,33%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,02%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>77,85; 82,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>75,99; 82,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>81,82; 86,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>79,97; 86,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>80,9; 84,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>79,45; 84,29</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,78%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,8%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>79,87; 82,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>74,67; 80,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>86,21; 88,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>84,75; 87,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>83,63; 85,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>80,85; 84,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P38C-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Habitat-trans_dic.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>83,68%</t>
+          <t>82,88%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>87,22%</t>
+          <t>86,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>87,79%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>92,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>85,22%</t>
+          <t>85,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>89,83%</t>
+          <t>89,34%</t>
         </is>
       </c>
     </row>
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,14; 90,8</t>
+          <t>79,77; 85,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>74,26; 94,06</t>
+          <t>81,23; 89,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,91; 92,01</t>
+          <t>85,14; 90,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,17; 95,89</t>
+          <t>90,41; 94,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>79,75; 89,25</t>
+          <t>83,34; 87,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,6; 93,92</t>
+          <t>86,65; 91,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,72%</t>
+          <t>82,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>85,54%</t>
+          <t>61,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88,0%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>84,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>85,36%</t>
+          <t>86,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>88,91%</t>
+          <t>72,16%</t>
         </is>
       </c>
     </row>
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,62; 85,9</t>
+          <t>79,77; 84,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,38; 89,04</t>
+          <t>32,09; 79,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,99; 90,42</t>
+          <t>88,57; 92,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89,37; 94,08</t>
+          <t>82,46; 87,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,06; 87,18</t>
+          <t>84,81; 87,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>86,41; 91,0</t>
+          <t>46,78; 82,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>80,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73,48%</t>
+          <t>79,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>90,42%</t>
+          <t>87,3%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>84,03%</t>
+          <t>89,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>86,47%</t>
+          <t>83,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>85,0%</t>
         </is>
       </c>
     </row>
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,77; 84,6</t>
+          <t>77,13; 82,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,93; 78,65</t>
+          <t>74,89; 83,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,57; 92,15</t>
+          <t>84,89; 89,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81,33; 86,2</t>
+          <t>85,25; 95,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,81; 87,91</t>
+          <t>81,73; 85,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>70,98; 81,58</t>
+          <t>82,01; 90,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>80,21%</t>
+          <t>80,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>79,26%</t>
+          <t>79,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>87,3%</t>
+          <t>84,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>87,37%</t>
+          <t>80,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>83,83%</t>
+          <t>82,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>83,67%</t>
+          <t>80,5%</t>
         </is>
       </c>
     </row>
@@ -879,39 +879,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>77,13; 82,99</t>
+          <t>77,85; 82,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>75,08; 83,01</t>
+          <t>76,46; 82,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,89; 89,46</t>
+          <t>81,82; 86,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,81; 92,36</t>
+          <t>61,49; 87,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,73; 85,72</t>
+          <t>80,9; 84,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,1; 87,75</t>
+          <t>71,04; 84,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>80,46%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>79,38%</t>
+          <t>74,67%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>84,33%</t>
+          <t>87,44%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>84,24%</t>
+          <t>86,3%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>82,51%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>82,02%</t>
+          <t>80,65%</t>
         </is>
       </c>
     </row>
@@ -959,124 +959,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,85; 82,74</t>
+          <t>79,87; 82,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>75,99; 82,41</t>
+          <t>54,51; 80,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>81,82; 86,44</t>
+          <t>86,21; 88,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,97; 86,66</t>
+          <t>80,03; 88,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>80,9; 84,16</t>
+          <t>83,63; 85,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,45; 84,29</t>
+          <t>72,07; 84,16</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>81,47%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>78,78%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>87,44%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>86,37%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>84,53%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>82,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>79,87; 82,8</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>74,67; 80,88</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>86,21; 88,55</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>84,75; 87,96</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>83,63; 85,42</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>80,85; 84,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1086,7 +1006,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P38C-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>79,77; 85,71</t>
+          <t>79,67; 85,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,23; 89,57</t>
+          <t>81,26; 89,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,14; 90,18</t>
+          <t>85,25; 89,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>90,41; 94,13</t>
+          <t>90,31; 94,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>83,34; 87,2</t>
+          <t>83,28; 87,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,65; 91,27</t>
+          <t>86,59; 91,16</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,77; 84,6</t>
+          <t>79,73; 84,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,09; 79,04</t>
+          <t>33,23; 78,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,57; 92,15</t>
+          <t>88,56; 92,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,46; 87,01</t>
+          <t>82,69; 87,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,81; 87,91</t>
+          <t>84,8; 87,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,78; 82,06</t>
+          <t>49,27; 82,04</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77,13; 82,99</t>
+          <t>77,04; 83,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74,89; 83,09</t>
+          <t>74,73; 82,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,89; 89,46</t>
+          <t>84,89; 89,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,25; 95,11</t>
+          <t>85,34; 94,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>81,73; 85,72</t>
+          <t>81,88; 85,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,01; 90,76</t>
+          <t>81,73; 90,41</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>77,85; 82,74</t>
+          <t>77,89; 82,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>76,46; 82,95</t>
+          <t>76,48; 82,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81,82; 86,44</t>
+          <t>81,82; 86,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>61,49; 87,12</t>
+          <t>65,58; 87,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>80,9; 84,16</t>
+          <t>80,79; 84,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,04; 84,06</t>
+          <t>68,9; 84,0</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>79,87; 82,8</t>
+          <t>80,09; 82,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>54,51; 80,99</t>
+          <t>57,23; 80,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,21; 88,55</t>
+          <t>86,35; 88,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>80,03; 88,72</t>
+          <t>80,73; 88,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>83,63; 85,42</t>
+          <t>83,65; 85,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>72,07; 84,16</t>
+          <t>70,67; 84,5</t>
         </is>
       </c>
     </row>
@@ -1009,4 +1010,714 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han medido los niveles de glucosal por prescripción médica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1118</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1828</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>555133</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>546685</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>587340</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>623447</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1142473</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1170132</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>533575; 574032</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>516373; 568239</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>570335; 601440</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>608924; 634692</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1114887; 1169022</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1134132; 1193895</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1338</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1649</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>831813</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>737463</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>940389</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>811175</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1772203</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1548638</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>804819; 856515</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>395932; 940249</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>921073; 956901</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>789455; 830833</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1737982; 1801329</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1057391; 1760733</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>601088</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>557432</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>681877</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>832381</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1282965</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1389812</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>577359; 623054</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>526618; 584132</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>663030; 699268</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>793999; 878888</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1253144; 1313151</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1336365; 1478269</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1545</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2251</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>747888</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>740676</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>875101</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>886635</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1622989</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1627311</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>723981; 770915</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>708842; 768839</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>848977; 897182</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>717909; 953061</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1589257; 1655752</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1392962; 1698184</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2616</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2870</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2884</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4839</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5500</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7709</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2735922</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2582257</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3084708</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3153638</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5820630</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5735894</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2689338; 2782281</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1979099; 2799393</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3046246; 3124396</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2949914; 3243177</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5759974; 5875968</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5026322; 6009920</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>